--- a/Milestone3/ExcelSheets/EachProductThroughput.xlsx
+++ b/Milestone3/ExcelSheets/EachProductThroughput.xlsx
@@ -461,13 +461,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.602</v>
+        <v>2.205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.276</v>
+        <v>1.47</v>
       </c>
       <c r="D2" t="n">
-        <v>0.303</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="3">
@@ -475,13 +475,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.623</v>
+        <v>2.568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.267</v>
+        <v>1.419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.282</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.695</v>
+        <v>2.214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3</v>
+        <v>1.404</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333</v>
+        <v>1.404</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +503,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.461</v>
+        <v>2.316</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237</v>
+        <v>1.479</v>
       </c>
       <c r="D5" t="n">
-        <v>0.279</v>
+        <v>1.476</v>
       </c>
     </row>
     <row r="6">
@@ -517,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.512</v>
+        <v>2.193</v>
       </c>
       <c r="C6" t="n">
-        <v>0.372</v>
+        <v>1.431</v>
       </c>
       <c r="D6" t="n">
-        <v>0.306</v>
+        <v>1.431</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.512</v>
+        <v>2.301</v>
       </c>
       <c r="C7" t="n">
-        <v>0.318</v>
+        <v>1.449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27</v>
+        <v>1.449</v>
       </c>
     </row>
     <row r="8">
@@ -545,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>4.611000000000001</v>
+        <v>2.673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.306</v>
+        <v>1.32</v>
       </c>
       <c r="D8" t="n">
-        <v>0.291</v>
+        <v>1.317</v>
       </c>
     </row>
     <row r="9">
@@ -559,13 +559,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4.482</v>
+        <v>2.106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.303</v>
+        <v>1.449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.267</v>
+        <v>1.443</v>
       </c>
     </row>
     <row r="10">
@@ -573,13 +573,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4.53</v>
+        <v>2.361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.324</v>
+        <v>1.494</v>
       </c>
       <c r="D10" t="n">
-        <v>0.288</v>
+        <v>1.494</v>
       </c>
     </row>
     <row r="11">
@@ -587,13 +587,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4.401000000000001</v>
+        <v>2.301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.285</v>
+        <v>1.398</v>
       </c>
       <c r="D11" t="n">
-        <v>0.309</v>
+        <v>1.398</v>
       </c>
     </row>
   </sheetData>
